--- a/2024_fantasy_driver_data.xlsx
+++ b/2024_fantasy_driver_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC460"/>
+  <dimension ref="A1:AC480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44041,6 +44041,1860 @@
         <v>23</v>
       </c>
     </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>norris</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Lando Norris</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>McLaren</t>
+        </is>
+      </c>
+      <c r="D461" t="n">
+        <v>1</v>
+      </c>
+      <c r="E461" t="n">
+        <v>1</v>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="G461" t="n">
+        <v>3</v>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>1:27.438</t>
+        </is>
+      </c>
+      <c r="I461" t="n">
+        <v>1</v>
+      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
+      <c r="L461" t="inlineStr"/>
+      <c r="M461" t="n">
+        <v>0</v>
+      </c>
+      <c r="N461" t="b">
+        <v>0</v>
+      </c>
+      <c r="O461" t="n">
+        <v>0</v>
+      </c>
+      <c r="P461" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q461" t="n">
+        <v>0</v>
+      </c>
+      <c r="R461" t="n">
+        <v>10</v>
+      </c>
+      <c r="S461" t="n">
+        <v>0</v>
+      </c>
+      <c r="T461" t="n">
+        <v>0</v>
+      </c>
+      <c r="U461" t="n">
+        <v>0</v>
+      </c>
+      <c r="V461" t="n">
+        <v>25</v>
+      </c>
+      <c r="W461" t="n">
+        <v>0</v>
+      </c>
+      <c r="X461" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y461" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z461" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA461" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB461" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AC461" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>sainz</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Carlos Sainz</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Ferrari</t>
+        </is>
+      </c>
+      <c r="D462" t="n">
+        <v>3</v>
+      </c>
+      <c r="E462" t="n">
+        <v>2</v>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="G462" t="n">
+        <v>5</v>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>1:27.765</t>
+        </is>
+      </c>
+      <c r="I462" t="n">
+        <v>3</v>
+      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
+      <c r="L462" t="inlineStr"/>
+      <c r="M462" t="n">
+        <v>0</v>
+      </c>
+      <c r="N462" t="b">
+        <v>0</v>
+      </c>
+      <c r="O462" t="n">
+        <v>1</v>
+      </c>
+      <c r="P462" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q462" t="n">
+        <v>0</v>
+      </c>
+      <c r="R462" t="n">
+        <v>8</v>
+      </c>
+      <c r="S462" t="n">
+        <v>0</v>
+      </c>
+      <c r="T462" t="n">
+        <v>0</v>
+      </c>
+      <c r="U462" t="n">
+        <v>0</v>
+      </c>
+      <c r="V462" t="n">
+        <v>18</v>
+      </c>
+      <c r="W462" t="n">
+        <v>1</v>
+      </c>
+      <c r="X462" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y462" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z462" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA462" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB462" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AC462" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>leclerc</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Charles Leclerc</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Ferrari</t>
+        </is>
+      </c>
+      <c r="D463" t="n">
+        <v>19</v>
+      </c>
+      <c r="E463" t="n">
+        <v>3</v>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="G463" t="n">
+        <v>9</v>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>1:28.018</t>
+        </is>
+      </c>
+      <c r="I463" t="n">
+        <v>14</v>
+      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
+      <c r="L463" t="inlineStr"/>
+      <c r="M463" t="n">
+        <v>0</v>
+      </c>
+      <c r="N463" t="b">
+        <v>0</v>
+      </c>
+      <c r="O463" t="n">
+        <v>16</v>
+      </c>
+      <c r="P463" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q463" t="n">
+        <v>0</v>
+      </c>
+      <c r="R463" t="n">
+        <v>0</v>
+      </c>
+      <c r="S463" t="n">
+        <v>0</v>
+      </c>
+      <c r="T463" t="n">
+        <v>0</v>
+      </c>
+      <c r="U463" t="n">
+        <v>0</v>
+      </c>
+      <c r="V463" t="n">
+        <v>15</v>
+      </c>
+      <c r="W463" t="n">
+        <v>16</v>
+      </c>
+      <c r="X463" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y463" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z463" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA463" t="n">
+        <v>31</v>
+      </c>
+      <c r="AB463" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AC463" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>hamilton</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Lewis Hamilton</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Mercedes</t>
+        </is>
+      </c>
+      <c r="D464" t="n">
+        <v>16</v>
+      </c>
+      <c r="E464" t="n">
+        <v>4</v>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="G464" t="n">
+        <v>2</v>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>1:27.278</t>
+        </is>
+      </c>
+      <c r="I464" t="n">
+        <v>18</v>
+      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
+      <c r="L464" t="inlineStr"/>
+      <c r="M464" t="n">
+        <v>0</v>
+      </c>
+      <c r="N464" t="b">
+        <v>0</v>
+      </c>
+      <c r="O464" t="n">
+        <v>12</v>
+      </c>
+      <c r="P464" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q464" t="n">
+        <v>0</v>
+      </c>
+      <c r="R464" t="n">
+        <v>0</v>
+      </c>
+      <c r="S464" t="n">
+        <v>0</v>
+      </c>
+      <c r="T464" t="n">
+        <v>0</v>
+      </c>
+      <c r="U464" t="n">
+        <v>0</v>
+      </c>
+      <c r="V464" t="n">
+        <v>12</v>
+      </c>
+      <c r="W464" t="n">
+        <v>12</v>
+      </c>
+      <c r="X464" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y464" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z464" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA464" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB464" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AC464" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>russell</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>George Russell</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>Mercedes</t>
+        </is>
+      </c>
+      <c r="D465" t="n">
+        <v>6</v>
+      </c>
+      <c r="E465" t="n">
+        <v>5</v>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="G465" t="n">
+        <v>10</v>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>1:28.195</t>
+        </is>
+      </c>
+      <c r="I465" t="n">
+        <v>7</v>
+      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
+      <c r="L465" t="inlineStr"/>
+      <c r="M465" t="n">
+        <v>0</v>
+      </c>
+      <c r="N465" t="b">
+        <v>0</v>
+      </c>
+      <c r="O465" t="n">
+        <v>1</v>
+      </c>
+      <c r="P465" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q465" t="n">
+        <v>0</v>
+      </c>
+      <c r="R465" t="n">
+        <v>4</v>
+      </c>
+      <c r="S465" t="n">
+        <v>0</v>
+      </c>
+      <c r="T465" t="n">
+        <v>0</v>
+      </c>
+      <c r="U465" t="n">
+        <v>0</v>
+      </c>
+      <c r="V465" t="n">
+        <v>10</v>
+      </c>
+      <c r="W465" t="n">
+        <v>1</v>
+      </c>
+      <c r="X465" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y465" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z465" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA465" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB465" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AC465" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>max_verstappen</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Max Verstappen</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Red Bull</t>
+        </is>
+      </c>
+      <c r="D466" t="n">
+        <v>4</v>
+      </c>
+      <c r="E466" t="n">
+        <v>6</v>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="G466" t="n">
+        <v>6</v>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>1:27.765</t>
+        </is>
+      </c>
+      <c r="I466" t="n">
+        <v>5</v>
+      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
+      <c r="L466" t="inlineStr"/>
+      <c r="M466" t="n">
+        <v>0</v>
+      </c>
+      <c r="N466" t="b">
+        <v>0</v>
+      </c>
+      <c r="O466" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P466" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q466" t="n">
+        <v>0</v>
+      </c>
+      <c r="R466" t="n">
+        <v>6</v>
+      </c>
+      <c r="S466" t="n">
+        <v>0</v>
+      </c>
+      <c r="T466" t="n">
+        <v>0</v>
+      </c>
+      <c r="U466" t="n">
+        <v>0</v>
+      </c>
+      <c r="V466" t="n">
+        <v>8</v>
+      </c>
+      <c r="W466" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X466" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y466" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z466" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA466" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB466" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AC466" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>gasly</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Pierre Gasly</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>Alpine F1 Team</t>
+        </is>
+      </c>
+      <c r="D467" t="n">
+        <v>5</v>
+      </c>
+      <c r="E467" t="n">
+        <v>7</v>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="G467" t="n">
+        <v>16</v>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>1:29.251</t>
+        </is>
+      </c>
+      <c r="I467" t="n">
+        <v>6</v>
+      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
+      <c r="L467" t="inlineStr"/>
+      <c r="M467" t="n">
+        <v>0</v>
+      </c>
+      <c r="N467" t="b">
+        <v>0</v>
+      </c>
+      <c r="O467" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P467" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q467" t="n">
+        <v>0</v>
+      </c>
+      <c r="R467" t="n">
+        <v>5</v>
+      </c>
+      <c r="S467" t="n">
+        <v>0</v>
+      </c>
+      <c r="T467" t="n">
+        <v>0</v>
+      </c>
+      <c r="U467" t="n">
+        <v>0</v>
+      </c>
+      <c r="V467" t="n">
+        <v>6</v>
+      </c>
+      <c r="W467" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X467" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y467" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z467" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA467" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB467" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AC467" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>hulkenberg</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Nico Hülkenberg</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>Haas F1 Team</t>
+        </is>
+      </c>
+      <c r="D468" t="n">
+        <v>7</v>
+      </c>
+      <c r="E468" t="n">
+        <v>8</v>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="G468" t="n">
+        <v>14</v>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>1:29.152</t>
+        </is>
+      </c>
+      <c r="I468" t="n">
+        <v>4</v>
+      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
+      <c r="L468" t="inlineStr"/>
+      <c r="M468" t="n">
+        <v>0</v>
+      </c>
+      <c r="N468" t="b">
+        <v>0</v>
+      </c>
+      <c r="O468" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P468" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q468" t="n">
+        <v>0</v>
+      </c>
+      <c r="R468" t="n">
+        <v>7</v>
+      </c>
+      <c r="S468" t="n">
+        <v>0</v>
+      </c>
+      <c r="T468" t="n">
+        <v>0</v>
+      </c>
+      <c r="U468" t="n">
+        <v>0</v>
+      </c>
+      <c r="V468" t="n">
+        <v>4</v>
+      </c>
+      <c r="W468" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X468" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y468" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z468" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA468" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB468" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AC468" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>alonso</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Fernando Alonso</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>Aston Martin</t>
+        </is>
+      </c>
+      <c r="D469" t="n">
+        <v>8</v>
+      </c>
+      <c r="E469" t="n">
+        <v>9</v>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="G469" t="n">
+        <v>7</v>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>1:27.948</t>
+        </is>
+      </c>
+      <c r="I469" t="n">
+        <v>8</v>
+      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
+      <c r="L469" t="inlineStr"/>
+      <c r="M469" t="n">
+        <v>0</v>
+      </c>
+      <c r="N469" t="b">
+        <v>0</v>
+      </c>
+      <c r="O469" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P469" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q469" t="n">
+        <v>0</v>
+      </c>
+      <c r="R469" t="n">
+        <v>3</v>
+      </c>
+      <c r="S469" t="n">
+        <v>0</v>
+      </c>
+      <c r="T469" t="n">
+        <v>0</v>
+      </c>
+      <c r="U469" t="n">
+        <v>0</v>
+      </c>
+      <c r="V469" t="n">
+        <v>2</v>
+      </c>
+      <c r="W469" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X469" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y469" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z469" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA469" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB469" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AC469" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>piastri</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Oscar Piastri</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>McLaren</t>
+        </is>
+      </c>
+      <c r="D470" t="n">
+        <v>2</v>
+      </c>
+      <c r="E470" t="n">
+        <v>10</v>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>Finished</t>
+        </is>
+      </c>
+      <c r="G470" t="n">
+        <v>4</v>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>1:27.690</t>
+        </is>
+      </c>
+      <c r="I470" t="n">
+        <v>2</v>
+      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
+      <c r="L470" t="inlineStr"/>
+      <c r="M470" t="n">
+        <v>0</v>
+      </c>
+      <c r="N470" t="b">
+        <v>0</v>
+      </c>
+      <c r="O470" t="n">
+        <v>-8</v>
+      </c>
+      <c r="P470" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q470" t="n">
+        <v>0</v>
+      </c>
+      <c r="R470" t="n">
+        <v>9</v>
+      </c>
+      <c r="S470" t="n">
+        <v>0</v>
+      </c>
+      <c r="T470" t="n">
+        <v>0</v>
+      </c>
+      <c r="U470" t="n">
+        <v>0</v>
+      </c>
+      <c r="V470" t="n">
+        <v>1</v>
+      </c>
+      <c r="W470" t="n">
+        <v>-8</v>
+      </c>
+      <c r="X470" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y470" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z470" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA470" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB470" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AC470" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>albon</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Alexander Albon</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="D471" t="n">
+        <v>18</v>
+      </c>
+      <c r="E471" t="n">
+        <v>11</v>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>+1 Lap</t>
+        </is>
+      </c>
+      <c r="G471" t="n">
+        <v>18</v>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>1:29.438</t>
+        </is>
+      </c>
+      <c r="I471" t="n">
+        <v>16</v>
+      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
+      <c r="L471" t="inlineStr"/>
+      <c r="M471" t="n">
+        <v>0</v>
+      </c>
+      <c r="N471" t="b">
+        <v>0</v>
+      </c>
+      <c r="O471" t="n">
+        <v>7</v>
+      </c>
+      <c r="P471" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q471" t="n">
+        <v>0</v>
+      </c>
+      <c r="R471" t="n">
+        <v>0</v>
+      </c>
+      <c r="S471" t="n">
+        <v>0</v>
+      </c>
+      <c r="T471" t="n">
+        <v>0</v>
+      </c>
+      <c r="U471" t="n">
+        <v>0</v>
+      </c>
+      <c r="V471" t="n">
+        <v>0</v>
+      </c>
+      <c r="W471" t="n">
+        <v>7</v>
+      </c>
+      <c r="X471" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y471" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z471" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA471" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB471" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AC471" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>tsunoda</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Yuki Tsunoda</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>RB F1 Team</t>
+        </is>
+      </c>
+      <c r="D472" t="n">
+        <v>11</v>
+      </c>
+      <c r="E472" t="n">
+        <v>12</v>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>+1 Lap</t>
+        </is>
+      </c>
+      <c r="G472" t="n">
+        <v>15</v>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>1:29.200</t>
+        </is>
+      </c>
+      <c r="I472" t="n">
+        <v>11</v>
+      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
+      <c r="L472" t="inlineStr"/>
+      <c r="M472" t="n">
+        <v>0</v>
+      </c>
+      <c r="N472" t="b">
+        <v>0</v>
+      </c>
+      <c r="O472" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P472" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q472" t="n">
+        <v>0</v>
+      </c>
+      <c r="R472" t="n">
+        <v>0</v>
+      </c>
+      <c r="S472" t="n">
+        <v>0</v>
+      </c>
+      <c r="T472" t="n">
+        <v>0</v>
+      </c>
+      <c r="U472" t="n">
+        <v>0</v>
+      </c>
+      <c r="V472" t="n">
+        <v>0</v>
+      </c>
+      <c r="W472" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X472" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y472" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z472" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA472" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB472" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AC472" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>zhou</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Guanyu Zhou</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>Sauber</t>
+        </is>
+      </c>
+      <c r="D473" t="n">
+        <v>15</v>
+      </c>
+      <c r="E473" t="n">
+        <v>13</v>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>+1 Lap</t>
+        </is>
+      </c>
+      <c r="G473" t="n">
+        <v>8</v>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>1:27.982</t>
+        </is>
+      </c>
+      <c r="I473" t="n">
+        <v>17</v>
+      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
+      <c r="L473" t="inlineStr"/>
+      <c r="M473" t="n">
+        <v>0</v>
+      </c>
+      <c r="N473" t="b">
+        <v>0</v>
+      </c>
+      <c r="O473" t="n">
+        <v>2</v>
+      </c>
+      <c r="P473" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q473" t="n">
+        <v>0</v>
+      </c>
+      <c r="R473" t="n">
+        <v>0</v>
+      </c>
+      <c r="S473" t="n">
+        <v>0</v>
+      </c>
+      <c r="T473" t="n">
+        <v>0</v>
+      </c>
+      <c r="U473" t="n">
+        <v>0</v>
+      </c>
+      <c r="V473" t="n">
+        <v>0</v>
+      </c>
+      <c r="W473" t="n">
+        <v>2</v>
+      </c>
+      <c r="X473" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y473" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z473" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA473" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB473" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AC473" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>stroll</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Lance Stroll</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Aston Martin</t>
+        </is>
+      </c>
+      <c r="D474" t="n">
+        <v>13</v>
+      </c>
+      <c r="E474" t="n">
+        <v>14</v>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>+1 Lap</t>
+        </is>
+      </c>
+      <c r="G474" t="n">
+        <v>11</v>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>1:28.604</t>
+        </is>
+      </c>
+      <c r="I474" t="n">
+        <v>13</v>
+      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
+      <c r="L474" t="inlineStr"/>
+      <c r="M474" t="n">
+        <v>0</v>
+      </c>
+      <c r="N474" t="b">
+        <v>0</v>
+      </c>
+      <c r="O474" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P474" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q474" t="n">
+        <v>0</v>
+      </c>
+      <c r="R474" t="n">
+        <v>0</v>
+      </c>
+      <c r="S474" t="n">
+        <v>0</v>
+      </c>
+      <c r="T474" t="n">
+        <v>0</v>
+      </c>
+      <c r="U474" t="n">
+        <v>0</v>
+      </c>
+      <c r="V474" t="n">
+        <v>0</v>
+      </c>
+      <c r="W474" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X474" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y474" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z474" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA474" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB474" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AC474" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>doohan</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Jack Doohan</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Alpine F1 Team</t>
+        </is>
+      </c>
+      <c r="D475" t="n">
+        <v>17</v>
+      </c>
+      <c r="E475" t="n">
+        <v>15</v>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>+1 Lap</t>
+        </is>
+      </c>
+      <c r="G475" t="n">
+        <v>13</v>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>1:29.121</t>
+        </is>
+      </c>
+      <c r="I475" t="n">
+        <v>20</v>
+      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
+      <c r="L475" t="inlineStr"/>
+      <c r="M475" t="n">
+        <v>0</v>
+      </c>
+      <c r="N475" t="b">
+        <v>0</v>
+      </c>
+      <c r="O475" t="n">
+        <v>2</v>
+      </c>
+      <c r="P475" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q475" t="n">
+        <v>0</v>
+      </c>
+      <c r="R475" t="n">
+        <v>0</v>
+      </c>
+      <c r="S475" t="n">
+        <v>0</v>
+      </c>
+      <c r="T475" t="n">
+        <v>0</v>
+      </c>
+      <c r="U475" t="n">
+        <v>0</v>
+      </c>
+      <c r="V475" t="n">
+        <v>0</v>
+      </c>
+      <c r="W475" t="n">
+        <v>2</v>
+      </c>
+      <c r="X475" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y475" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z475" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA475" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB475" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AC475" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>kevin_magnussen</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Kevin Magnussen</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>Haas F1 Team</t>
+        </is>
+      </c>
+      <c r="D476" t="n">
+        <v>14</v>
+      </c>
+      <c r="E476" t="n">
+        <v>16</v>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>+1 Lap</t>
+        </is>
+      </c>
+      <c r="G476" t="n">
+        <v>1</v>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>1:25.637</t>
+        </is>
+      </c>
+      <c r="I476" t="n">
+        <v>15</v>
+      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
+      <c r="L476" t="inlineStr"/>
+      <c r="M476" t="n">
+        <v>0</v>
+      </c>
+      <c r="N476" t="b">
+        <v>1</v>
+      </c>
+      <c r="O476" t="n">
+        <v>-2</v>
+      </c>
+      <c r="P476" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q476" t="n">
+        <v>0</v>
+      </c>
+      <c r="R476" t="n">
+        <v>0</v>
+      </c>
+      <c r="S476" t="n">
+        <v>0</v>
+      </c>
+      <c r="T476" t="n">
+        <v>0</v>
+      </c>
+      <c r="U476" t="n">
+        <v>0</v>
+      </c>
+      <c r="V476" t="n">
+        <v>0</v>
+      </c>
+      <c r="W476" t="n">
+        <v>-2</v>
+      </c>
+      <c r="X476" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y476" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z476" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA476" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB476" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AC476" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>lawson</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Liam Lawson</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>RB F1 Team</t>
+        </is>
+      </c>
+      <c r="D477" t="n">
+        <v>12</v>
+      </c>
+      <c r="E477" t="n">
+        <v>17</v>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>Engine</t>
+        </is>
+      </c>
+      <c r="G477" t="n">
+        <v>12</v>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>1:28.751</t>
+        </is>
+      </c>
+      <c r="I477" t="n">
+        <v>12</v>
+      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
+      <c r="L477" t="inlineStr"/>
+      <c r="M477" t="n">
+        <v>0</v>
+      </c>
+      <c r="N477" t="b">
+        <v>0</v>
+      </c>
+      <c r="O477" t="n">
+        <v>-5</v>
+      </c>
+      <c r="P477" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q477" t="n">
+        <v>0</v>
+      </c>
+      <c r="R477" t="n">
+        <v>0</v>
+      </c>
+      <c r="S477" t="n">
+        <v>0</v>
+      </c>
+      <c r="T477" t="n">
+        <v>0</v>
+      </c>
+      <c r="U477" t="n">
+        <v>0</v>
+      </c>
+      <c r="V477" t="n">
+        <v>0</v>
+      </c>
+      <c r="W477" t="n">
+        <v>-5</v>
+      </c>
+      <c r="X477" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y477" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z477" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA477" t="n">
+        <v>-5</v>
+      </c>
+      <c r="AB477" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AC477" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>bottas</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Valtteri Bottas</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Sauber</t>
+        </is>
+      </c>
+      <c r="D478" t="n">
+        <v>9</v>
+      </c>
+      <c r="E478" t="n">
+        <v>18</v>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>Collision damage</t>
+        </is>
+      </c>
+      <c r="G478" t="n">
+        <v>19</v>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>1:29.482</t>
+        </is>
+      </c>
+      <c r="I478" t="n">
+        <v>9</v>
+      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
+      <c r="L478" t="inlineStr"/>
+      <c r="M478" t="n">
+        <v>0</v>
+      </c>
+      <c r="N478" t="b">
+        <v>0</v>
+      </c>
+      <c r="O478" t="n">
+        <v>-9</v>
+      </c>
+      <c r="P478" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q478" t="n">
+        <v>0</v>
+      </c>
+      <c r="R478" t="n">
+        <v>2</v>
+      </c>
+      <c r="S478" t="n">
+        <v>0</v>
+      </c>
+      <c r="T478" t="n">
+        <v>0</v>
+      </c>
+      <c r="U478" t="n">
+        <v>0</v>
+      </c>
+      <c r="V478" t="n">
+        <v>0</v>
+      </c>
+      <c r="W478" t="n">
+        <v>-9</v>
+      </c>
+      <c r="X478" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y478" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z478" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA478" t="n">
+        <v>-7</v>
+      </c>
+      <c r="AB478" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AC478" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>colapinto</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Franco Colapinto</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="D479" t="n">
+        <v>20</v>
+      </c>
+      <c r="E479" t="n">
+        <v>19</v>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>Engine</t>
+        </is>
+      </c>
+      <c r="G479" t="n">
+        <v>17</v>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>1:29.411</t>
+        </is>
+      </c>
+      <c r="I479" t="n">
+        <v>19</v>
+      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
+      <c r="L479" t="inlineStr"/>
+      <c r="M479" t="n">
+        <v>0</v>
+      </c>
+      <c r="N479" t="b">
+        <v>0</v>
+      </c>
+      <c r="O479" t="n">
+        <v>1</v>
+      </c>
+      <c r="P479" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q479" t="n">
+        <v>0</v>
+      </c>
+      <c r="R479" t="n">
+        <v>0</v>
+      </c>
+      <c r="S479" t="n">
+        <v>0</v>
+      </c>
+      <c r="T479" t="n">
+        <v>0</v>
+      </c>
+      <c r="U479" t="n">
+        <v>0</v>
+      </c>
+      <c r="V479" t="n">
+        <v>0</v>
+      </c>
+      <c r="W479" t="n">
+        <v>1</v>
+      </c>
+      <c r="X479" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y479" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z479" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA479" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB479" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AC479" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>perez</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Sergio Pérez</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Red Bull</t>
+        </is>
+      </c>
+      <c r="D480" t="n">
+        <v>10</v>
+      </c>
+      <c r="E480" t="n">
+        <v>20</v>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>Collision</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr"/>
+      <c r="H480" t="inlineStr"/>
+      <c r="I480" t="n">
+        <v>10</v>
+      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
+      <c r="L480" t="inlineStr"/>
+      <c r="M480" t="n">
+        <v>0</v>
+      </c>
+      <c r="N480" t="b">
+        <v>0</v>
+      </c>
+      <c r="O480" t="n">
+        <v>-10</v>
+      </c>
+      <c r="P480" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q480" t="n">
+        <v>0</v>
+      </c>
+      <c r="R480" t="n">
+        <v>1</v>
+      </c>
+      <c r="S480" t="n">
+        <v>0</v>
+      </c>
+      <c r="T480" t="n">
+        <v>0</v>
+      </c>
+      <c r="U480" t="n">
+        <v>0</v>
+      </c>
+      <c r="V480" t="n">
+        <v>0</v>
+      </c>
+      <c r="W480" t="n">
+        <v>-10</v>
+      </c>
+      <c r="X480" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y480" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z480" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA480" t="n">
+        <v>-9</v>
+      </c>
+      <c r="AB480" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AC480" t="n">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
